--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3878EB8C-A09F-45F5-9D66-69F0958CCFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3430F35C-5D81-4F23-BD44-5E48A8CF17E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA2B90-D83A-42B9-B629-BDEBDC0588D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1428,10 +1422,7 @@
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done </t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1501,12 +1492,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1522,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1546,6 +1543,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1863,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1901,47 +1905,47 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
+      <c r="C6" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="C7" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -3310,7 +3314,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3321,7 +3325,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3332,7 +3336,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3343,7 +3347,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3354,7 +3358,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3365,7 +3369,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3376,7 +3380,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3387,7 +3391,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3398,7 +3402,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3409,7 +3413,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3420,7 +3424,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -7384,6 +7388,5 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA2B90-D83A-42B9-B629-BDEBDC0588D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D4A880-EA7C-4F08-9007-7A1047B9C69B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1429,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>heapify/priority Queue method yet to do</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1502,6 +1511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,6 +1565,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1566,6 +1588,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1867,15 +1893,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="40.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
@@ -1905,24 +1931,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1934,18 +1960,18 @@
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>465</v>
+      <c r="C9" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D4A880-EA7C-4F08-9007-7A1047B9C69B}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A86326-2E3E-41E7-AEE3-D7BBAFAE415B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,9 +1420,6 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>heapify/priority Queue method yet to do</t>
@@ -1591,6 +1582,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1894,7 +1893,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1938,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1949,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1960,7 +1959,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1975,35 +1974,35 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="16" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A86326-2E3E-41E7-AEE3-D7BBAFAE415B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489C18BA-BC6E-4261-A494-ABB30FCEA8A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>heapify/priority Queue method yet to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t understand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be solved using graph and dp yet to do, didn’t  understand </t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,6 +1517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1525,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,6 +1573,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1892,15 +1911,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="40.09765625" customWidth="1"/>
+    <col min="3" max="3" width="54.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
@@ -2007,46 +2026,46 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="C14" s="19" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="C15" s="19" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7413,5 +7432,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489C18BA-BC6E-4261-A494-ABB30FCEA8A4}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7D43A4-3CB9-48E5-9727-2BFF66CC89F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1430,12 @@
   </si>
   <si>
     <t xml:space="preserve">can be solved using graph and dp yet to do, didn’t  understand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">topics to learn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shell sort </t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1537,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,6 +1595,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1609,6 +1630,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1911,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2004,13 +2029,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2026,13 +2051,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2070,46 +2095,46 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7434,4 +7459,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52445C-BCDB-4ED9-9524-35094F30161A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="26.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7D43A4-3CB9-48E5-9727-2BFF66CC89F8}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E54844F-97A7-446E-89B4-E4A96BCBBCEE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,26 +1422,14 @@
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>heapify/priority Queue method yet to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didn’t understand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">can be solved using graph and dp yet to do, didn’t  understand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">topics to learn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell sort </t>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1504,19 +1491,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1526,13 +1515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1581,26 +1564,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1619,22 +1590,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1934,30 +1889,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="54.19921875" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:7" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1967,178 +1925,289 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="14" t="s">
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="14" t="s">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="21" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="14" t="s">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="21" t="s">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="17" t="s">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="17" t="s">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="21" t="s">
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="14" t="s">
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="21" t="s">
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21">
+      <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="21" t="s">
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21">
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:6" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:6" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:6" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:6" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2259,7 +2328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:6" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2383,13 +2452,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2976,13 +3045,13 @@
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3376,13 +3445,13 @@
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3776,13 +3845,13 @@
       <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7457,34 +7526,5 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52445C-BCDB-4ED9-9524-35094F30161A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="26.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E54844F-97A7-446E-89B4-E4A96BCBBCEE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8105DD4-6C91-477D-97B8-2C746AC3A948}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2070,6 +2070,9 @@
       <c r="F12">
         <v>22</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21">
       <c r="A13" s="5" t="s">
@@ -2121,6 +2124,9 @@
       <c r="F15">
         <v>38</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="5" t="s">
@@ -2139,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21">
+    <row r="17" spans="1:7" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21">
+    <row r="18" spans="1:7" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21">
+    <row r="19" spans="1:7" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21">
+    <row r="20" spans="1:7" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2206,8 +2212,11 @@
       <c r="F20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21">
+    <row r="22" spans="1:7" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21">
+    <row r="23" spans="1:7" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21">
+    <row r="24" spans="1:7" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21">
+    <row r="25" spans="1:7" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21">
+    <row r="26" spans="1:7" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21">
+    <row r="27" spans="1:7" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21">
+    <row r="28" spans="1:7" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21">
+    <row r="29" spans="1:7" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21">
+    <row r="30" spans="1:7" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21">
+    <row r="31" spans="1:7" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21">
+    <row r="32" spans="1:7" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -4240,13 +4249,13 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5100,13 +5109,13 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6967,13 +6976,13 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
+      <c r="A472" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="6" t="s">
+      <c r="B472" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="C472" s="4" t="s">
+      <c r="C472" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8105DD4-6C91-477D-97B8-2C746AC3A948}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41256511-E78C-456F-993F-D2D0C8212049}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1951,17 +1951,17 @@
         <v>36</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -1971,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21">
@@ -1991,7 +1991,7 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21">
@@ -2011,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21">
@@ -2031,7 +2031,7 @@
         <v>36</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21">
@@ -2051,7 +2051,7 @@
         <v>35</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21">
@@ -2472,13 +2472,13 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2576,24 +2576,24 @@
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3065,13 +3065,13 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3465,13 +3465,13 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3865,13 +3865,13 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41256511-E78C-456F-993F-D2D0C8212049}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C18847-C47D-4364-A199-688742E95BDC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D468" sqref="D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2071,7 +2071,7 @@
         <v>22</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21">
@@ -4260,13 +4260,13 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashh\OneDrive\Documents\Love Babbar DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C18847-C47D-4364-A199-688742E95BDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>heaps method yet to do</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1895,7 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D468" sqref="D468"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1951,7 +1954,7 @@
         <v>36</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21">
@@ -1975,14 +1978,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="13" t="s">
+        <v>466</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>53</v>
@@ -2125,7 +2128,7 @@
         <v>38</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21">
@@ -2213,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21">
@@ -5120,13 +5123,13 @@
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6987,13 +6990,13 @@
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="5" t="s">
+      <c r="A473" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="B473" s="6" t="s">
+      <c r="B473" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C473" s="4" t="s">
+      <c r="C473" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashh\OneDrive\Documents\Love Babbar DSA 450 Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE185B09-820E-4D4F-BD99-CE64CF6E79F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1954,7 +1954,7 @@
         <v>36</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21">
@@ -1998,13 +1998,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -2018,13 +2018,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -2038,13 +2038,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="16" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE185B09-820E-4D4F-BD99-CE64CF6E79F6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC0E919-F117-4BC6-A491-B3D17FF9DA3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1974,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21">
@@ -2486,13 +2486,13 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC0E919-F117-4BC6-A491-B3D17FF9DA3C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25BA4C4-2778-436D-BAA8-5C46471BF9E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1503,7 +1503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1522,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1536,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,6 +1581,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1894,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1974,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21">
@@ -2497,35 +2510,35 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="20" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25BA4C4-2778-436D-BAA8-5C46471BF9E0}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3ECFB01-C078-4A4F-9807-324C8A4329C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1542,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,6 +1588,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1907,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2007,7 +2011,7 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21">
@@ -2614,79 +2618,79 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="20" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{4A75F6CB-8124-4305-864C-0CE4A2F74D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3ECFB01-C078-4A4F-9807-324C8A4329C4}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0646B920-6171-4B83-8394-3AC00996F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9DB289-3AFB-464E-937C-7BFCFC669A2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,14 +1434,20 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>heaps method yet to do</t>
+    <t>HOW MANY MORE TO GO</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>Bit Manuplation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,8 +1517,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,18 +1535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,7 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1573,26 +1583,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1909,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:G481"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1920,22 +1924,24 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6">
+    <row r="1" spans="1:8" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21">
+    <row r="4" spans="1:8" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1945,16 +1951,13 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21">
+    <row r="6" spans="1:8" ht="21">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1964,117 +1967,114 @@
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="21">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="21">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15">
         <v>36</v>
       </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="21">
-      <c r="A7" s="11" t="s">
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <f>(F9-G9)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F7">
+      <c r="F10" s="15">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10:H23" si="0">(F10-G10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F8">
+      <c r="F11" s="15">
         <v>43</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9">
-        <v>36</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21">
-      <c r="A10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21">
-      <c r="A11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21">
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2085,16 +2085,20 @@
         <v>4</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21">
+        <v>97</v>
+      </c>
+      <c r="F12" s="15">
+        <v>36</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2104,14 +2108,19 @@
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21">
+      <c r="E13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="15">
+        <v>36</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2121,14 +2130,19 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21">
+      <c r="E14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="15">
+        <v>35</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2139,16 +2153,18 @@
         <v>4</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F15">
-        <v>38</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21">
+        <v>207</v>
+      </c>
+      <c r="F15" s="15">
+        <v>22</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2158,14 +2174,19 @@
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21">
+      <c r="E16" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="15">
+        <v>35</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,14 +2196,19 @@
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F17">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21">
+      <c r="E17" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="15">
+        <v>19</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2192,14 +2218,19 @@
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="21">
+      <c r="E18" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="15">
+        <v>38</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2209,14 +2240,19 @@
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21">
+      <c r="E19" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="15">
+        <v>18</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2227,16 +2263,18 @@
         <v>4</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21">
+        <v>343</v>
+      </c>
+      <c r="F20" s="15">
+        <v>44</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2284,19 @@
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="21">
+      <c r="E21" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="17">
+        <v>6</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2257,8 +2306,19 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="21">
+      <c r="E22" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="15">
+        <v>60</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2268,8 +2328,19 @@
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="21">
+      <c r="E23" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="15">
+        <v>10</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2279,8 +2350,21 @@
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="21">
+      <c r="E24" s="18"/>
+      <c r="F24" s="16">
+        <f>SUM(F9:F23)</f>
+        <v>448</v>
+      </c>
+      <c r="G24" s="16">
+        <f>SUM(G9:G23)</f>
+        <v>4</v>
+      </c>
+      <c r="H24" s="16">
+        <f>SUM(H9:H23)</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2291,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="21">
+    <row r="26" spans="1:8" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21">
+    <row r="27" spans="1:8" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21">
+    <row r="28" spans="1:8" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21">
+    <row r="29" spans="1:8" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="21">
+    <row r="30" spans="1:8" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="21">
+    <row r="31" spans="1:8" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="21">
+    <row r="32" spans="1:8" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2481,7 +2565,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -2492,57 +2576,57 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2607,90 +2691,90 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3085,13 +3169,13 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3474,7 +3558,7 @@
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="12" t="s">
@@ -3485,13 +3569,13 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3874,24 +3958,24 @@
       <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4269,24 +4353,24 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="11" t="s">
+      <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C214" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="11" t="s">
+      <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C215" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5129,24 +5213,24 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="11" t="s">
+      <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="11" t="s">
+      <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="B297" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="C297" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6996,24 +7080,24 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="11" t="s">
+      <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="12" t="s">
+      <c r="B472" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C472" s="13" t="s">
+      <c r="C472" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="11" t="s">
+      <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B473" s="12" t="s">
+      <c r="B473" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C473" s="13" t="s">
+      <c r="C473" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0646B920-6171-4B83-8394-3AC00996F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9DB289-3AFB-464E-937C-7BFCFC669A2D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{0646B920-6171-4B83-8394-3AC00996F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE223D8-EDDE-4F2A-BA3B-8510361363B2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,18 @@
   </si>
   <si>
     <t>Bit Manuplation</t>
+  </si>
+  <si>
+    <t>use the comcept of heaps and solve</t>
+  </si>
+  <si>
+    <t>to be revised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice printing on different lines part </t>
+  </si>
+  <si>
+    <t>strore the element and then go ahead and find the rest</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1535,6 +1547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,7 +1570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1597,6 +1615,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1915,15 +1943,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="102.8984375" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" customWidth="1"/>
@@ -1969,13 +1997,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="15"/>
@@ -1988,14 +2016,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="22" t="s">
+        <v>469</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2003,14 +2031,14 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="13" t="s">
+        <v>470</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>5</v>
@@ -2019,11 +2047,11 @@
         <v>36</v>
       </c>
       <c r="G9" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="15">
         <f>(F9-G9)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21">
@@ -2114,10 +2142,12 @@
       <c r="F13" s="15">
         <v>36</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21">
@@ -2136,10 +2166,12 @@
       <c r="F14" s="15">
         <v>35</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
       <c r="H14" s="15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21">
@@ -2158,10 +2190,12 @@
       <c r="F15" s="15">
         <v>22</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
       <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21">
@@ -2174,7 +2208,7 @@
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="19" t="s">
         <v>230</v>
       </c>
       <c r="F16" s="15">
@@ -2196,7 +2230,7 @@
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="19" t="s">
         <v>265</v>
       </c>
       <c r="F17" s="15">
@@ -2240,7 +2274,7 @@
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="19" t="s">
         <v>324</v>
       </c>
       <c r="F19" s="15">
@@ -2284,7 +2318,7 @@
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>387</v>
       </c>
       <c r="F21" s="17">
@@ -2306,7 +2340,7 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="19" t="s">
         <v>467</v>
       </c>
       <c r="F22" s="15">
@@ -2357,11 +2391,11 @@
       </c>
       <c r="G24" s="16">
         <f>SUM(G9:G23)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H24" s="16">
         <f>SUM(H9:H23)</f>
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21">
@@ -3165,7 +3199,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>4</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -3958,14 +3992,14 @@
       <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>4</v>
+      <c r="C177" s="13" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -4353,13 +4387,13 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/161d44c73f258637/Documents/Love Babbar DSA 450 Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashh\Desktop\Love Babbar DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{0646B920-6171-4B83-8394-3AC00996F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE223D8-EDDE-4F2A-BA3B-8510361363B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B2004-6292-40F1-9D6D-C0D06BD68674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1944,7 +1935,7 @@
   <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2047,21 +2038,21 @@
         <v>36</v>
       </c>
       <c r="G9" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="15">
         <f>(F9-G9)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="16" t="s">
@@ -2391,11 +2382,11 @@
       </c>
       <c r="G24" s="16">
         <f>SUM(G9:G23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" s="16">
         <f>SUM(H9:H23)</f>
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21">
